--- a/DICCIONARIOSQL/DICCIONARIO BASE DE DATOS  STORED.xlsx
+++ b/DICCIONARIOSQL/DICCIONARIO BASE DE DATOS  STORED.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ServerStored\DICCIONARIOSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA287015-05F9-4577-8C01-5438C4B7A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87EE6B7-26A9-4BB6-9D3C-F076DF489374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="172">
   <si>
     <t>USUARIO</t>
   </si>
@@ -79,24 +79,6 @@
     <t>publica(+)</t>
   </si>
   <si>
-    <t>confidencial(#)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">especifica el numero con el que se crea cada cuenta </t>
-  </si>
-  <si>
-    <t>numero con el que se reconoce cada cuenta</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>nombre ingresado por el usuario</t>
-  </si>
-  <si>
-    <t>contiene los nombres y apellidos que ingresa el usuario</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIN DATOS VACIOS </t>
   </si>
   <si>
@@ -109,261 +91,30 @@
     <t xml:space="preserve">contiene el correo con el que se creo la cuenta y servira para suministrar informacion </t>
   </si>
   <si>
-    <t>contraseña</t>
-  </si>
-  <si>
     <t xml:space="preserve">contraseña que asigna el usuario para crear su cuenta </t>
   </si>
   <si>
-    <t>alfanumerico</t>
-  </si>
-  <si>
-    <t>numero/texto</t>
-  </si>
-  <si>
     <t>contraseña asignada por el usuario la cual le servira para ingresar a la cuenta de usuario</t>
   </si>
   <si>
-    <t>PERMISOS DE LA CUENTA</t>
-  </si>
-  <si>
-    <t>id_rol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identificador del usuario y su rol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">contiene el numero con el cual se podra identificar el rol que cumple cada persona </t>
-  </si>
-  <si>
-    <t>name_rol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre de la persona que crea la cuenta </t>
-  </si>
-  <si>
     <t xml:space="preserve">varchar </t>
   </si>
   <si>
-    <t xml:space="preserve">contiene nombres y apellidos de la persona que creo la cuenta que es a la cual se le van a otorgar permisos que tengan que ver directamente con la cuenta </t>
-  </si>
-  <si>
     <t xml:space="preserve">obligatorio </t>
   </si>
   <si>
-    <t>CATEGORIAS</t>
-  </si>
-  <si>
-    <t>id_categoria</t>
-  </si>
-  <si>
-    <t>numero con el que se identifica cada categoria</t>
-  </si>
-  <si>
-    <t>contiene el numero con el que se podra identificar cada categoria y asignar sus respectivos elementos</t>
-  </si>
-  <si>
-    <t>nombre_categoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">especifica el nombre de cada categoria </t>
-  </si>
-  <si>
-    <t>0:sin categoria 1:catego1 2:catego2</t>
-  </si>
-  <si>
-    <t>publico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permite organizar las categorias por medio de nombres que facilitaran el trabajo al momento de utilizarla </t>
-  </si>
-  <si>
-    <t>NC: no se clasifico</t>
-  </si>
-  <si>
-    <t>SUBASTA</t>
-  </si>
-  <si>
-    <t>id_subasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identificador de la subasta </t>
-  </si>
-  <si>
-    <t>contiene el identificador de la subasta a realizar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre de la subasta </t>
-  </si>
-  <si>
-    <t>publico(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre con el cual se podra identificar cada categoria mas facilmente </t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio del producto ofertado en la subasta </t>
-  </si>
-  <si>
-    <t>precio del producto ofertado en cada subasta el cual recibira compradores</t>
-  </si>
-  <si>
-    <t>anuncios</t>
-  </si>
-  <si>
-    <t>anuncios de productos a subastar</t>
-  </si>
-  <si>
-    <t>anuncios de productos subastados o proximos a subastar</t>
-  </si>
-  <si>
     <t>opcional</t>
   </si>
   <si>
-    <t>VACIO</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha del producto </t>
-  </si>
-  <si>
-    <t>fecha en la cual se subasto el producto o se va a subastar</t>
-  </si>
-  <si>
-    <t>OFERTAS</t>
-  </si>
-  <si>
-    <t>id_oferta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identificador de la oferta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
-    <t>contiene el valor que se le asigna a cada oferta para identificarlo (unico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre de la oferta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombreque el subastador le da a la oferta para reconocerla </t>
-  </si>
-  <si>
-    <t>asignacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asignacion de la oferta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">texto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiempo y funcion que se le asigna a la oferta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcional </t>
-  </si>
-  <si>
-    <t>fecha de la oferta</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>predeterminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contiene fecha en la que se subasto y obtuvo oferta por un producto </t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
-    <t>estadodel producto</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t xml:space="preserve">se ingresa y muestra el estado en el cual se subasto el producto </t>
-  </si>
-  <si>
-    <t>PRODUCTOS</t>
-  </si>
-  <si>
-    <t>id_producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identificador del producto </t>
-  </si>
-  <si>
-    <t>contiene numero con el que se va a ordenar cada uno de los productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIN DAROS VACIOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">contiene nombre detallado de cada producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio de producto con el cual se va a subastar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">estado del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">estado en el cual se entrego o recibio el producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fechadel producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha en la cual se obtiene el producto </t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cantidad de productos recibidos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cantidad de productos que se recibieron de una misma referencia </t>
-  </si>
-  <si>
-    <t>calidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calidad del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">calidad de cada producto y asi se permitira dar una informacion mas detallada </t>
-  </si>
-  <si>
-    <t>imagen</t>
-  </si>
-  <si>
-    <t>imagen del producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permitira tener una informacion aun mas detallada del producto </t>
-  </si>
-  <si>
     <t>idAccount</t>
   </si>
   <si>
@@ -455,17 +206,361 @@
   </si>
   <si>
     <t>MODULO</t>
+  </si>
+  <si>
+    <t>Idmodulo</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripcion </t>
+  </si>
+  <si>
+    <t>statusM</t>
+  </si>
+  <si>
+    <t>idAdminAcc</t>
+  </si>
+  <si>
+    <t>LLAVE PRIMARIA</t>
+  </si>
+  <si>
+    <t>titulo ingresado por el usuario</t>
+  </si>
+  <si>
+    <t>descripcion acerca del minimercado creado</t>
+  </si>
+  <si>
+    <t>especifica el numero con el que se dan los permisos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permite que el administrador atraves de un codigo pueda dar el permiso de acceder a la cuenta </t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>IdUsers</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>imgURL</t>
+  </si>
+  <si>
+    <t>imgLD</t>
+  </si>
+  <si>
+    <t>authCuenta</t>
+  </si>
+  <si>
+    <t>este permite saber el estado en el que se encuentra el modulo para ser acesible</t>
+  </si>
+  <si>
+    <t>permite sabes el estado del moduclo</t>
+  </si>
+  <si>
+    <t>perimite dar una breve descripcion de referncia enfatizando en el modulo</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>nombreTienda</t>
+  </si>
+  <si>
+    <t>fechaCreacion</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>AceptoterminosYcondiciones</t>
+  </si>
+  <si>
+    <t>Numerico</t>
+  </si>
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
+    <t>idServices</t>
+  </si>
+  <si>
+    <t>dispositivo</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>tokens</t>
+  </si>
+  <si>
+    <t>fechaUltHour</t>
+  </si>
+  <si>
+    <t>lugarConection</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>navegador</t>
+  </si>
+  <si>
+    <t>infoNavegIp</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>idAccountUsers</t>
+  </si>
+  <si>
+    <t>PERMISOS</t>
+  </si>
+  <si>
+    <t>idpermisions</t>
+  </si>
+  <si>
+    <t>idmoduloCount</t>
+  </si>
+  <si>
+    <t>isAllowed</t>
+  </si>
+  <si>
+    <t>Asignacion del nombre del Administrador</t>
+  </si>
+  <si>
+    <t>especifica el numero de id con el que se va a identificar el modulo</t>
+  </si>
+  <si>
+    <t>especifica el numero de id con el que se va a identificar el administrador</t>
+  </si>
+  <si>
+    <t>especifica el numero de id con el que se va a identificar los services</t>
+  </si>
+  <si>
+    <t>especifica el numero de id con el que se va a identificara los permisos</t>
+  </si>
+  <si>
+    <t>identificador de modulo que se le va asignar este permiso</t>
+  </si>
+  <si>
+    <t>breve descripcion de permiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del permiso que se le desea asignar al modulo </t>
+  </si>
+  <si>
+    <t>especifica el estado si esta activo o inactivo</t>
+  </si>
+  <si>
+    <t>varcha</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>set(text)</t>
+  </si>
+  <si>
+    <t>numero con el que se reconoce cada modulo</t>
+  </si>
+  <si>
+    <t>permite ingresar un titulo para el modulo asignado</t>
+  </si>
+  <si>
+    <t>numero con el que se reconoce los permisos</t>
+  </si>
+  <si>
+    <t>Especifica los accesos depende de la asignado</t>
+  </si>
+  <si>
+    <t>permiso asignado para los modulos los cuales son acesibles con los usuarios</t>
+  </si>
+  <si>
+    <t>pequeño mensaje del permiso creado</t>
+  </si>
+  <si>
+    <t>obtener una imagen mediante una url</t>
+  </si>
+  <si>
+    <t>doumento de identificación de cada administrador</t>
+  </si>
+  <si>
+    <t>Estado de la cuenta si fue creata con éxito o no</t>
+  </si>
+  <si>
+    <t>Permite el estado del admin si esta conectado</t>
+  </si>
+  <si>
+    <t>Codigo de cambio de contraseña</t>
+  </si>
+  <si>
+    <t>Numero telefonico del adnim</t>
+  </si>
+  <si>
+    <t>Nombre de la tienda o empresa</t>
+  </si>
+  <si>
+    <t>Fecha de creacion en la que se creo el administrador</t>
+  </si>
+  <si>
+    <t>Tipo de rol del admin</t>
+  </si>
+  <si>
+    <t>Politicas de privacidad de stored</t>
+  </si>
+  <si>
+    <t>protected(#)</t>
+  </si>
+  <si>
+    <t>obigatorio</t>
+  </si>
+  <si>
+    <t>contraseña asignada por el usuario la cual le servira para ingresar a la cuenta del administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le permite saber al administrador la fechca de creacion de su cuenta </t>
+  </si>
+  <si>
+    <t>Nombre del administrador encargado del negocio</t>
+  </si>
+  <si>
+    <t>url obtenida desde la base de datos con la que se identificara el administrador o la tienda</t>
+  </si>
+  <si>
+    <t>id de la imagen para las modificacionde de la imágenes</t>
+  </si>
+  <si>
+    <t>Documento(C.C) identificacion de cada persona</t>
+  </si>
+  <si>
+    <t>Verificacion de su cuenta si se creo correctamente o hubo problemas al crear</t>
+  </si>
+  <si>
+    <t>Codigo de vericicacion la cual se le va a mandar al correo para el cambio de la contraseña</t>
+  </si>
+  <si>
+    <t>Numero telefonico del negocio o del administrador para accesoria</t>
+  </si>
+  <si>
+    <t>Permite saber el nombre de la tienda o empresa para su identificacion unica</t>
+  </si>
+  <si>
+    <t>Rol que especifica los accesos que va ha tener</t>
+  </si>
+  <si>
+    <t>Acepta nuestros accesos para el acceso del dispositivo entre otras</t>
+  </si>
+  <si>
+    <t>Saber en que dispositivo se conecta</t>
+  </si>
+  <si>
+    <t>obtener ip de donde se conecta</t>
+  </si>
+  <si>
+    <t>token de creacion de cuenta</t>
+  </si>
+  <si>
+    <t>Fecha en la hora que se conecta el usuario</t>
+  </si>
+  <si>
+    <t>Lugar de donde se conecta</t>
+  </si>
+  <si>
+    <t>Tipo de idioma asignado por region</t>
+  </si>
+  <si>
+    <t>De donde navega</t>
+  </si>
+  <si>
+    <t>Informacion del navegador</t>
+  </si>
+  <si>
+    <t>Ciudad de donde se conecto</t>
+  </si>
+  <si>
+    <t>Pais donde se conecto</t>
+  </si>
+  <si>
+    <t>Region donde entra el acceso</t>
+  </si>
+  <si>
+    <t>identificación de cada servicio, con id diferentes</t>
+  </si>
+  <si>
+    <t>Acceso al dispositivo de se conecta, para saber mas de ti</t>
+  </si>
+  <si>
+    <t>obtener ip del dispositivo donde se conecta , para saber su ubicación en tiempo real</t>
+  </si>
+  <si>
+    <t>tokens, acceso al usuario</t>
+  </si>
+  <si>
+    <t>Fecha en que se conecta, para saber su estado</t>
+  </si>
+  <si>
+    <t>Plugar de conexión hace referencia tipo de region</t>
+  </si>
+  <si>
+    <t>tipo de idioma de que opais se encuentra</t>
+  </si>
+  <si>
+    <t>tipo navegador se va ha guardar todas las especificaciones resumidas</t>
+  </si>
+  <si>
+    <t>Permite saberle al administrador de la ciudad en que se conecto actualmente</t>
+  </si>
+  <si>
+    <t>Tipo de region, lo cual permite saber mas de su conexión</t>
+  </si>
+  <si>
+    <t>identificador de usuario que se le va asignar este servicios</t>
+  </si>
+  <si>
+    <t>Especifica su relacion con la que van a ir esta informacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,19 +592,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7CAAC"/>
-        <bgColor rgb="FFF7CAAC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -553,8 +648,32 @@
         <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -577,56 +696,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1007"/>
+  <dimension ref="A1:J1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -866,7 +1071,7 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="0.140625" customWidth="1"/>
@@ -874,1147 +1079,1453 @@
     <col min="11" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45">
+      <c r="A21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="A22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A31" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A32" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="33" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="24" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A44" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A45" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="39" customHeight="1">
+      <c r="A46" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A47" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" customHeight="1">
+      <c r="A48" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" customHeight="1">
+      <c r="A50" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C52" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="39" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="54" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="D54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="H54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75">
-      <c r="A19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45">
-      <c r="A22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45">
-      <c r="A26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2958,6 +3469,12 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -2965,6 +3482,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>